--- a/assets/ShortcutWebsiteConfig.xlsx
+++ b/assets/ShortcutWebsiteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12275" windowHeight="6515"/>
+    <workbookView windowWidth="16835" windowHeight="6515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/assets/ShortcutWebsiteConfig.xlsx
+++ b/assets/ShortcutWebsiteConfig.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16835" windowHeight="6515"/>
+    <workbookView windowWidth="24825" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>按钮文本</t>
   </si>
@@ -22,6 +35,15 @@
     <t>网址</t>
   </si>
   <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>内部主页</t>
   </si>
   <si>
@@ -44,12 +66,60 @@
   </si>
   <si>
     <t>https://translate.google.com/</t>
+  </si>
+  <si>
+    <t>二解号表</t>
+  </si>
+  <si>
+    <t>https://docs.qq.com/sheet/DZHZOVERPUVN3cHNC?tab=xqnokv&amp;_t=1697511713883</t>
+  </si>
+  <si>
+    <t>数据报表</t>
+  </si>
+  <si>
+    <t>http://www.cnhfrj.top/base/data/dcdata</t>
+  </si>
+  <si>
+    <t>企业主页(速创后台)</t>
+  </si>
+  <si>
+    <t>http://www.lpipo.xyz/m.php</t>
+  </si>
+  <si>
+    <t>下户平台(Cyberklick)</t>
+  </si>
+  <si>
+    <t>https://business.cyberklick.com.cn/</t>
+  </si>
+  <si>
+    <t>色色导航</t>
+  </si>
+  <si>
+    <t>https://theporndude.com/zh</t>
+  </si>
+  <si>
+    <t>X站</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/</t>
+  </si>
+  <si>
+    <t>阿里图标库</t>
+  </si>
+  <si>
+    <t>https://www.iconfont.cn/</t>
+  </si>
+  <si>
+    <t>图片下载01</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -65,55 +135,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,6 +192,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -203,7 +252,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,49 +288,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,121 +426,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,21 +479,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,6 +511,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,204 +584,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1011,59 +1087,140 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="40.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="111.555555555556" customWidth="1"/>
+    <col min="1" max="1" width="40.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="50.9833333333333" customWidth="1"/>
+    <col min="3" max="3" width="35.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="http://www.lpipo.xyz/m.php" tooltip="http://www.lpipo.xyz/m.php"/>
+    <hyperlink ref="B10" r:id="rId2" display="https://theporndude.com/zh"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://www.xvideos.com/"/>
+    <hyperlink ref="B12" r:id="rId4" display="https://www.iconfont.cn/"/>
+    <hyperlink ref="B13" r:id="rId5" display="https://unsplash.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/assets/ShortcutWebsiteConfig.xlsx
+++ b/assets/ShortcutWebsiteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24825" windowHeight="9075"/>
+    <workbookView windowWidth="19065" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>按钮文本</t>
   </si>
@@ -62,58 +62,70 @@
     <t>https://www.kdocs.cn/l/ce0M7wZemcgi</t>
   </si>
   <si>
+    <t>二解号表</t>
+  </si>
+  <si>
+    <t>https://docs.qq.com/sheet/DZHZOVERPUVN3cHNC?tab=xqnokv&amp;_t=1697511713883</t>
+  </si>
+  <si>
+    <t>消费报表</t>
+  </si>
+  <si>
+    <t>http://www.cnhfrj.top/base/data/dcdata</t>
+  </si>
+  <si>
+    <t>企业主页(速创后台)</t>
+  </si>
+  <si>
+    <t>http://www.lpipo.xyz/m.php</t>
+  </si>
+  <si>
+    <t>下户平台(Cyberklick)</t>
+  </si>
+  <si>
+    <t>https://business.cyberklick.com.cn/</t>
+  </si>
+  <si>
+    <t>色色导航</t>
+  </si>
+  <si>
+    <t>https://theporndude.com/zh</t>
+  </si>
+  <si>
+    <t>P站</t>
+  </si>
+  <si>
+    <t>https://cn.pornhub.com/</t>
+  </si>
+  <si>
+    <t>X站</t>
+  </si>
+  <si>
+    <t>https://www.xvideos.com/</t>
+  </si>
+  <si>
+    <t>特殊字体转换</t>
+  </si>
+  <si>
+    <t>https://cn.piliapp.com/cool-text/bold-italic/</t>
+  </si>
+  <si>
+    <t>阿里图标库</t>
+  </si>
+  <si>
+    <t>https://www.iconfont.cn/</t>
+  </si>
+  <si>
+    <t>图片下载01</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/</t>
+  </si>
+  <si>
     <t>谷歌翻译</t>
   </si>
   <si>
     <t>https://translate.google.com/</t>
-  </si>
-  <si>
-    <t>二解号表</t>
-  </si>
-  <si>
-    <t>https://docs.qq.com/sheet/DZHZOVERPUVN3cHNC?tab=xqnokv&amp;_t=1697511713883</t>
-  </si>
-  <si>
-    <t>数据报表</t>
-  </si>
-  <si>
-    <t>http://www.cnhfrj.top/base/data/dcdata</t>
-  </si>
-  <si>
-    <t>企业主页(速创后台)</t>
-  </si>
-  <si>
-    <t>http://www.lpipo.xyz/m.php</t>
-  </si>
-  <si>
-    <t>下户平台(Cyberklick)</t>
-  </si>
-  <si>
-    <t>https://business.cyberklick.com.cn/</t>
-  </si>
-  <si>
-    <t>色色导航</t>
-  </si>
-  <si>
-    <t>https://theporndude.com/zh</t>
-  </si>
-  <si>
-    <t>X站</t>
-  </si>
-  <si>
-    <t>https://www.xvideos.com/</t>
-  </si>
-  <si>
-    <t>阿里图标库</t>
-  </si>
-  <si>
-    <t>https://www.iconfont.cn/</t>
-  </si>
-  <si>
-    <t>图片下载01</t>
-  </si>
-  <si>
-    <t>https://unsplash.com/</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1161,7 +1173,7 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1169,7 +1181,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1177,7 +1189,7 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1209,17 +1221,34 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="http://www.lpipo.xyz/m.php" tooltip="http://www.lpipo.xyz/m.php"/>
-    <hyperlink ref="B10" r:id="rId2" display="https://theporndude.com/zh"/>
+    <hyperlink ref="B7" r:id="rId1" display="http://www.lpipo.xyz/m.php" tooltip="http://www.lpipo.xyz/m.php"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://theporndude.com/zh"/>
     <hyperlink ref="B11" r:id="rId3" display="https://www.xvideos.com/"/>
-    <hyperlink ref="B12" r:id="rId4" display="https://www.iconfont.cn/"/>
-    <hyperlink ref="B13" r:id="rId5" display="https://unsplash.com/"/>
+    <hyperlink ref="B13" r:id="rId4" display="https://www.iconfont.cn/"/>
+    <hyperlink ref="B14" r:id="rId5" display="https://unsplash.com/"/>
+    <hyperlink ref="B12" r:id="rId6" display="https://cn.piliapp.com/cool-text/bold-italic/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/assets/ShortcutWebsiteConfig.xlsx
+++ b/assets/ShortcutWebsiteConfig.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19065" windowHeight="9075"/>
+    <workbookView windowWidth="16835" windowHeight="6515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -131,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -155,11 +142,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,14 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +235,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +243,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,21 +258,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -264,28 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,13 +287,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,24 +353,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,18 +401,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,36 +413,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,24 +437,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,12 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +478,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,21 +525,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,210 +583,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1102,14 +1086,14 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="40.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="50.9833333333333" customWidth="1"/>
-    <col min="3" max="3" width="35.2166666666667" customWidth="1"/>
+    <col min="1" max="1" width="40.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="50.9814814814815" customWidth="1"/>
+    <col min="3" max="3" width="35.212962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1173,7 +1157,7 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1189,7 +1173,7 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1197,7 +1181,7 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1205,7 +1189,7 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1213,7 +1197,7 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1221,7 +1205,7 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1229,7 +1213,7 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1243,12 +1227,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="http://www.lpipo.xyz/m.php" tooltip="http://www.lpipo.xyz/m.php"/>
-    <hyperlink ref="B9" r:id="rId2" display="https://theporndude.com/zh"/>
-    <hyperlink ref="B11" r:id="rId3" display="https://www.xvideos.com/"/>
-    <hyperlink ref="B13" r:id="rId4" display="https://www.iconfont.cn/"/>
-    <hyperlink ref="B14" r:id="rId5" display="https://unsplash.com/"/>
-    <hyperlink ref="B12" r:id="rId6" display="https://cn.piliapp.com/cool-text/bold-italic/"/>
+    <hyperlink ref="B10" r:id="rId1" display="https://cn.pornhub.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/assets/ShortcutWebsiteConfig.xlsx
+++ b/assets/ShortcutWebsiteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16835" windowHeight="6515"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,45 +134,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="6" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +335,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -472,12 +526,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,141 +667,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,30 +1173,33 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="40.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="50.9814814814815" customWidth="1"/>
-    <col min="3" max="3" width="35.212962962963" customWidth="1"/>
+    <col min="2" max="2" width="50.9814814814815" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1117,7 +1207,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1125,7 +1215,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1133,7 +1223,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1141,7 +1231,7 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1149,7 +1239,7 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1157,7 +1247,7 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1165,7 +1255,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1173,7 +1263,7 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1181,7 +1271,7 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1189,7 +1279,7 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1197,7 +1287,7 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1205,7 +1295,7 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1213,7 +1303,7 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1221,14 +1311,11 @@
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="https://cn.pornhub.com/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/assets/ShortcutWebsiteConfig.xlsx
+++ b/assets/ShortcutWebsiteConfig.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="18630" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>按钮文本</t>
   </si>
@@ -35,6 +48,12 @@
   </si>
   <si>
     <t>https://www.kdocs.cn/l/cdFQ2NM4wCcU</t>
+  </si>
+  <si>
+    <t>新内部主页</t>
+  </si>
+  <si>
+    <t>https://kdocs.cn/l/caTMz09jIGle</t>
   </si>
   <si>
     <t>伽佰主页</t>
@@ -118,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -182,34 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -223,14 +214,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,6 +258,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -320,7 +318,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,49 +360,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,121 +498,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,21 +565,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +598,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,148 +671,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -825,52 +844,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1170,19 +1189,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="40.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="50.9814814814815" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="40.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="50.9833333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.225" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1315,6 +1334,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/assets/ShortcutWebsiteConfig.xlsx
+++ b/assets/ShortcutWebsiteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18630" windowHeight="8535"/>
+    <workbookView windowWidth="21330" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>按钮文本</t>
   </si>
@@ -35,7 +35,7 @@
     <t>网址</t>
   </si>
   <si>
-    <t>账号</t>
+    <t>账号(用于自动登录)</t>
   </si>
   <si>
     <t>密码</t>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>https://www.iconfont.cn/</t>
+  </si>
+  <si>
+    <t>图片转视频</t>
+  </si>
+  <si>
+    <t>https://convert.leiapix.com/</t>
   </si>
   <si>
     <t>图片下载01</t>
@@ -816,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +845,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,12 +1198,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1330,7 +1339,7 @@
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1342,7 +1351,18 @@
         <v>34</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" display="https://convert.leiapix.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
